--- a/documents/QA表.xlsx
+++ b/documents/QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70F095-54FE-4F19-BB3D-D2CBC3C92BB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF6142A-B13E-409C-99C8-F5322C25F26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA表" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>●</t>
   </si>
@@ -283,6 +283,112 @@
     <t xml:space="preserve">貸している状況機能で、表示する情報は、最新情報のみでよいか？履歴情報も必要か？
 必要な場合は、一覧表示する際、最新と履歴どっちも表示するか？分けて表示するか?
 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所有者の返却確認後、借用者に対して、通知を
+飛ばすか！？
+飛ばさないか！？
+どっちなんだい！？</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャクヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別の所有者が同一の書物を登録していた場合に、所有者ごとに書物を一覧に
+表示するか！？
+表示しないか！？
+どっちなんだい！！！？</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショモツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショモツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登録済み書物を削除する際、
+個人の履歴には残しておくのか（論理削除）
+検索上表示させないようにするのか（所有者１人だけグループ）
+検索上表示するが、予約不可とするのか（？？？）	
+</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショモツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -422,14 +528,11 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,11 +543,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +856,8 @@
   </sheetPr>
   <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -786,10 +892,10 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -813,1146 +919,1214 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="23.15" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <f>COUNTA($D$5:D5)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10" ht="36" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10" ht="60">
-      <c r="B7" s="15">
+      <c r="B7" s="8">
         <f>COUNTA($D$5:D7)</f>
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="30">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="45">
-      <c r="B9" s="15">
+      <c r="B9" s="8">
         <f>COUNTA($D$5:D9)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="30">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" ht="75">
-      <c r="B11" s="15">
+      <c r="B11" s="8">
         <f>COUNTA($D$5:D11)</f>
         <v>4</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" ht="45">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="30">
-      <c r="B13" s="15">
+      <c r="B13" s="8">
         <f>COUNTA($D$5:D13)</f>
         <v>5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="45">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="120">
-      <c r="B15" s="15">
+      <c r="B15" s="8">
         <f>COUNTA($D$5:D15)</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="73" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="30">
-      <c r="B17" s="15">
+      <c r="B17" s="8">
         <f>COUNTA($D$5:D17)</f>
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" ht="60">
-      <c r="B19" s="15">
+      <c r="B19" s="8">
         <f>COUNTA($D$5:D19)</f>
         <v>8</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" ht="45">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="30">
-      <c r="B21" s="15">
+      <c r="B21" s="8">
         <f>COUNTA($D$5:D21)</f>
         <v>9</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10" ht="45">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" ht="45">
-      <c r="B23" s="15">
+      <c r="B23" s="8">
         <f>COUNTA($D$5:D23)</f>
         <v>10</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" ht="60">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="30">
-      <c r="B25" s="15">
+      <c r="B25" s="8">
         <f>COUNTA($D$5:D25)</f>
         <v>11</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" ht="45">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:10" ht="30">
-      <c r="B27" s="15">
+      <c r="B27" s="8">
         <f>COUNTA($D$5:D27)</f>
         <v>12</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" ht="45">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="30">
-      <c r="B29" s="15">
+      <c r="B29" s="8">
         <f>COUNTA($D$5:D29)</f>
         <v>13</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="14"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" ht="45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" ht="45">
-      <c r="B31" s="15">
+      <c r="B31" s="8">
         <f>COUNTA($D$5:D31)</f>
         <v>14</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" ht="30">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="45">
-      <c r="B33" s="15">
+      <c r="B33" s="8">
         <f>COUNTA($D$5:D33)</f>
         <v>15</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="14"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" ht="30">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="15">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" ht="60">
+      <c r="B35" s="8">
         <f>COUNTA($D$5:D35)</f>
-        <v>15</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" ht="30">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="15">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" ht="75">
+      <c r="B37" s="8">
         <f>COUNTA($D$5:D37)</f>
-        <v>15</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="2:10" ht="30">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="15">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" ht="60">
+      <c r="B39" s="8">
         <f>COUNTA($D$5:D39)</f>
-        <v>15</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="2:10" ht="30">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="15">
+      <c r="B41" s="8">
         <f>COUNTA($D$5:D41)</f>
-        <v>15</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="2:10" ht="30">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="14"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="15">
+      <c r="B43" s="8">
         <f>COUNTA($D$5:D43)</f>
-        <v>15</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="14"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="30">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="15">
+      <c r="B45" s="8">
         <f>COUNTA($D$5:D45)</f>
-        <v>15</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="14"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="2:10" ht="30">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="15">
+      <c r="B47" s="8">
         <f>COUNTA($D$5:D47)</f>
-        <v>15</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="14"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="2:10" ht="30">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="10"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="14"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="15">
+      <c r="B49" s="8">
         <f>COUNTA($D$5:D49)</f>
-        <v>15</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:10" ht="30">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="10"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="15">
+      <c r="B51" s="8">
         <f>COUNTA($D$5:D51)</f>
-        <v>15</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="2:10" ht="30">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="14"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="15">
+      <c r="B53" s="8">
         <f>COUNTA($D$5:D53)</f>
-        <v>15</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="2:10" ht="30">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="10"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="14"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="15">
+      <c r="B55" s="8">
         <f>COUNTA($D$5:D55)</f>
-        <v>15</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="14"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="2:10" ht="30">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="14"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="15">
+      <c r="B57" s="8">
         <f>COUNTA($D$5:D57)</f>
-        <v>15</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="2:10" ht="30">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="10"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="15">
+      <c r="B59" s="8">
         <f>COUNTA($D$5:D59)</f>
-        <v>15</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="2:10" ht="30">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="14"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="15">
+      <c r="B61" s="8">
         <f>COUNTA($D$5:D61)</f>
-        <v>15</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="14"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="2:10" ht="30">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="15">
+      <c r="B63" s="8">
         <f>COUNTA($D$5:D63)</f>
-        <v>15</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="14"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="2:10" ht="30">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="15">
+      <c r="B65" s="8">
         <f>COUNTA($D$5:D65)</f>
-        <v>15</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="14"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="2:10" ht="30">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="15">
+      <c r="B67" s="8">
         <f>COUNTA($D$5:D67)</f>
-        <v>15</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="14"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="2:10" ht="30">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="10"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="14"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="15">
+      <c r="B69" s="8">
         <f>COUNTA($D$5:D69)</f>
-        <v>15</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="14"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="2:10" ht="30">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="14"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="232">
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="H65:H66"/>
@@ -1977,138 +2151,82 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="B5:C70">

--- a/documents/QA表.xlsx
+++ b/documents/QA表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroshima_434\Desktop\libpro\CLibPrj-test\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF6142A-B13E-409C-99C8-F5322C25F26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5DA213-8142-483D-B507-B3602DDFB656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA表" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">QA表!$A$1:$K$70</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
   <si>
     <t>●</t>
   </si>
@@ -286,83 +286,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>所有者の返却確認後、借用者に対して、通知を
-飛ばすか！？
-飛ばさないか！？
-どっちなんだい！？</t>
-    <rPh sb="0" eb="3">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シャクヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>別の所有者が同一の書物を登録していた場合に、所有者ごとに書物を一覧に
-表示するか！？
-表示しないか！？
-どっちなんだい！！！？</t>
-    <rPh sb="0" eb="1">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショモツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショモツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">登録済み書物を削除する際、
 個人の履歴には残しておくのか（論理削除）
 検索上表示させないようにするのか（所有者１人だけグループ）
@@ -389,6 +312,409 @@
     <rPh sb="31" eb="33">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所有者の返却確認後、借用者に対して、通知を飛ばすか、飛ばさないか</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャクヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別の所有者が同一の書物を登録していた場合に、所有者ごとに書物を一覧に表示するか、表示しないか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショモツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショモツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予約登録</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予約登録をする際のinput項目は貸出期間のFROM～TOでよいか?</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>返却</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>返却ステータスへの変更のボタンの場所はどの画面にするか?
+どういう状態の時返却とするのか</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>貸借状況一覧の表示形式はどのようにするか？(管理者は特に）
+・貸出一覧に全て表示する
+・貸借履歴画面を別途作成する</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイシャク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索・一覧</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員名で検索する項目は漢字？フリガナ?</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員に対するIDはどのように管理するか？
+A:社員ID=ユーザID
+B:社員ID≠ユーザID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共通パスはいる？</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+いらない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;回答&gt;フェーズ2以降で実装
+</t>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+履歴も必要。後から作れないので。
+一覧表示する際、最新＋予定</t>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+通知は必要。(方法は要検討)</t>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+論理削除する。個人の履歴には残しておく。
+検索上表示させないようにする（所有者１人だけグループ）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+所有者ごとに書物を一覧に表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+FROM:今日
+貸出期間：初期表示で1か月
+TO：今日＋貸出期間</t>
+    <rPh sb="10" eb="12">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+ボタン：保留
+貸出した側が変更すれば返却</t>
+    <rPh sb="9" eb="11">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+貸借履歴画面を別途作成する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+フリガナで検索に。</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+A:社員ID=ユーザIDでユーザIDに管理者権限を付与する。</t>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ？社員？</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;回答&gt;
+ユーザにする。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -511,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -537,6 +863,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,7 +885,30 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -856,21 +1208,21 @@
   </sheetPr>
   <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="2.58203125" style="1"/>
-    <col min="4" max="4" width="18.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="103.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.625" style="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="103.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="2.58203125" style="1"/>
+    <col min="10" max="10" width="27.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -892,10 +1244,10 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -918,13 +1270,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="23.15" customHeight="1">
+    <row r="5" spans="2:10" ht="23.1" customHeight="1">
       <c r="B5" s="8">
         <f>COUNTA($D$5:D5)</f>
         <v>1</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -939,7 +1291,7 @@
       <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="9"/>
@@ -947,23 +1299,23 @@
     <row r="6" spans="2:10" ht="36" customHeight="1">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:10" ht="60">
+    <row r="7" spans="2:10" ht="63">
       <c r="B7" s="8">
         <f>COUNTA($D$5:D7)</f>
         <v>2</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -978,31 +1330,31 @@
       <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" ht="30">
+    <row r="8" spans="2:10" ht="31.5">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:10" ht="45">
+    <row r="9" spans="2:10" ht="47.25">
       <c r="B9" s="8">
         <f>COUNTA($D$5:D9)</f>
         <v>3</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1017,31 +1369,31 @@
       <c r="H9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" ht="30">
+    <row r="10" spans="2:10" ht="31.5">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:10" ht="75">
+    <row r="11" spans="2:10" ht="78.75">
       <c r="B11" s="8">
         <f>COUNTA($D$5:D11)</f>
         <v>4</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1056,31 +1408,31 @@
       <c r="H11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="2:10" ht="45">
+    <row r="12" spans="2:10" ht="47.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:10" ht="30">
+    <row r="13" spans="2:10" ht="31.5">
       <c r="B13" s="8">
         <f>COUNTA($D$5:D13)</f>
         <v>5</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1095,33 +1447,33 @@
       <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="45">
+    <row r="14" spans="2:10" ht="47.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" ht="120">
+    <row r="15" spans="2:10" ht="126">
       <c r="B15" s="8">
         <f>COUNTA($D$5:D15)</f>
         <v>6</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1136,31 +1488,31 @@
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="73" customHeight="1">
+    <row r="16" spans="2:10" ht="72.95" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="30">
+    <row r="17" spans="2:10" ht="31.5">
       <c r="B17" s="8">
         <f>COUNTA($D$5:D17)</f>
         <v>7</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1175,7 +1527,7 @@
       <c r="H17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -1185,23 +1537,23 @@
     <row r="18" spans="2:10" ht="45" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="60">
+    <row r="19" spans="2:10" ht="63">
       <c r="B19" s="8">
         <f>COUNTA($D$5:D19)</f>
         <v>8</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1216,31 +1568,31 @@
       <c r="H19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="45">
+    <row r="20" spans="2:10" ht="47.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" ht="30">
+    <row r="21" spans="2:10" ht="31.5">
       <c r="B21" s="8">
         <f>COUNTA($D$5:D21)</f>
         <v>9</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1255,31 +1607,31 @@
       <c r="H21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:10" ht="45">
+    <row r="22" spans="2:10" ht="47.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="2:10" ht="45">
+    <row r="23" spans="2:10" ht="47.25">
       <c r="B23" s="8">
         <f>COUNTA($D$5:D23)</f>
         <v>10</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1294,31 +1646,31 @@
       <c r="H23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:10" ht="60">
+    <row r="24" spans="2:10" ht="63">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10" ht="30">
+    <row r="25" spans="2:10" ht="31.5">
       <c r="B25" s="8">
         <f>COUNTA($D$5:D25)</f>
         <v>11</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1333,31 +1685,31 @@
       <c r="H25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="2:10" ht="45">
+    <row r="26" spans="2:10" ht="47.25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="2:10" ht="30">
+    <row r="27" spans="2:10" ht="31.5">
       <c r="B27" s="8">
         <f>COUNTA($D$5:D27)</f>
         <v>12</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1372,31 +1724,31 @@
       <c r="H27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:10" ht="45">
+    <row r="28" spans="2:10" ht="47.25">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:10" ht="30">
+    <row r="29" spans="2:10" ht="31.5">
       <c r="B29" s="8">
         <f>COUNTA($D$5:D29)</f>
         <v>13</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1411,31 +1763,31 @@
       <c r="H29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:10" ht="45">
+    <row r="30" spans="2:10" ht="47.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" ht="45">
+    <row r="31" spans="2:10" ht="47.25">
       <c r="B31" s="8">
         <f>COUNTA($D$5:D31)</f>
         <v>14</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1451,12 +1803,12 @@
       <c r="I31" s="10"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:10" ht="30">
+    <row r="32" spans="2:10" ht="31.5">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1464,13 +1816,13 @@
       <c r="I32" s="10"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="2:10" ht="45">
+    <row r="33" spans="2:10" ht="47.25">
       <c r="B33" s="8">
         <f>COUNTA($D$5:D33)</f>
         <v>15</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -1482,12 +1834,12 @@
       <c r="I33" s="10"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" ht="30">
+    <row r="34" spans="2:10" ht="47.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="6" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -1495,17 +1847,17 @@
       <c r="I34" s="10"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="2:10" ht="60">
-      <c r="B35" s="8">
+    <row r="35" spans="2:10">
+      <c r="B35" s="11">
         <f>COUNTA($D$5:D35)</f>
         <v>16</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -1513,12 +1865,12 @@
       <c r="I35" s="10"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="2:10" ht="30">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="14"/>
+    <row r="36" spans="2:10" ht="31.5">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="6" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1526,17 +1878,17 @@
       <c r="I36" s="10"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="2:10" ht="75">
-      <c r="B37" s="8">
+    <row r="37" spans="2:10" ht="78.75">
+      <c r="B37" s="11">
         <f>COUNTA($D$5:D37)</f>
         <v>17</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -1544,12 +1896,12 @@
       <c r="I37" s="10"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="2:10" ht="30">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="14"/>
+    <row r="38" spans="2:10" ht="47.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -1557,17 +1909,17 @@
       <c r="I38" s="10"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="2:10" ht="60">
-      <c r="B39" s="8">
+    <row r="39" spans="2:10">
+      <c r="B39" s="11">
         <f>COUNTA($D$5:D39)</f>
         <v>18</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -1575,12 +1927,12 @@
       <c r="I39" s="10"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="2:10" ht="30">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="14"/>
+    <row r="40" spans="2:10" ht="31.5">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -1589,25 +1941,29 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="8">
+      <c r="B41" s="11">
         <f>COUNTA($D$5:D41)</f>
-        <v>18</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="2:10" ht="30">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="14"/>
+    <row r="42" spans="2:10" ht="63">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -1615,26 +1971,30 @@
       <c r="I42" s="10"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="8">
+    <row r="43" spans="2:10" ht="31.5">
+      <c r="B43" s="11">
         <f>COUNTA($D$5:D43)</f>
-        <v>18</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="2:10" ht="30">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="14"/>
+    <row r="44" spans="2:10" ht="47.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -1642,26 +2002,30 @@
       <c r="I44" s="10"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="8">
+    <row r="45" spans="2:10" ht="47.25">
+      <c r="B45" s="11">
         <f>COUNTA($D$5:D45)</f>
-        <v>18</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="2:10" ht="30">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="14"/>
+    <row r="46" spans="2:10" ht="31.5">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -1670,25 +2034,29 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="8">
+      <c r="B47" s="11">
         <f>COUNTA($D$5:D47)</f>
-        <v>18</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="2:10" ht="30">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="14"/>
+    <row r="48" spans="2:10" ht="31.5">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="6" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -1696,26 +2064,30 @@
       <c r="I48" s="10"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="8">
+    <row r="49" spans="2:10" ht="47.25">
+      <c r="B49" s="11">
         <f>COUNTA($D$5:D49)</f>
-        <v>18</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="2:10" ht="30">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="14"/>
+    <row r="50" spans="2:10" ht="31.5">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -1726,23 +2098,27 @@
     <row r="51" spans="2:10">
       <c r="B51" s="8">
         <f>COUNTA($D$5:D51)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="2:10" ht="30">
+    <row r="52" spans="2:10" ht="31.5">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="6" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -1753,23 +2129,27 @@
     <row r="53" spans="2:10">
       <c r="B53" s="8">
         <f>COUNTA($D$5:D53)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="2:10" ht="30">
+    <row r="54" spans="2:10" ht="31.5">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="6" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -1780,10 +2160,10 @@
     <row r="55" spans="2:10">
       <c r="B55" s="8">
         <f>COUNTA($D$5:D55)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="5"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -1791,10 +2171,10 @@
       <c r="I55" s="10"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="2:10" ht="30">
+    <row r="56" spans="2:10" ht="31.5">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1807,10 +2187,10 @@
     <row r="57" spans="2:10">
       <c r="B57" s="8">
         <f>COUNTA($D$5:D57)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C57" s="8"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="5"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -1818,10 +2198,10 @@
       <c r="I57" s="10"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="2:10" ht="30">
+    <row r="58" spans="2:10" ht="31.5">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="6" t="s">
         <v>56</v>
       </c>
@@ -1834,10 +2214,10 @@
     <row r="59" spans="2:10">
       <c r="B59" s="8">
         <f>COUNTA($D$5:D59)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59" s="8"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="5"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -1845,10 +2225,10 @@
       <c r="I59" s="10"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="2:10" ht="30">
+    <row r="60" spans="2:10" ht="31.5">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="6" t="s">
         <v>56</v>
       </c>
@@ -1861,10 +2241,10 @@
     <row r="61" spans="2:10">
       <c r="B61" s="8">
         <f>COUNTA($D$5:D61)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C61" s="8"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="5"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -1872,10 +2252,10 @@
       <c r="I61" s="10"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="2:10" ht="30">
+    <row r="62" spans="2:10" ht="31.5">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="6" t="s">
         <v>56</v>
       </c>
@@ -1888,10 +2268,10 @@
     <row r="63" spans="2:10">
       <c r="B63" s="8">
         <f>COUNTA($D$5:D63)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C63" s="8"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="5"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -1899,10 +2279,10 @@
       <c r="I63" s="10"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="2:10" ht="30">
+    <row r="64" spans="2:10" ht="31.5">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="6" t="s">
         <v>56</v>
       </c>
@@ -1915,10 +2295,10 @@
     <row r="65" spans="2:10">
       <c r="B65" s="8">
         <f>COUNTA($D$5:D65)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="5"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -1926,10 +2306,10 @@
       <c r="I65" s="10"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="2:10" ht="30">
+    <row r="66" spans="2:10" ht="31.5">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="6" t="s">
         <v>56</v>
       </c>
@@ -1942,10 +2322,10 @@
     <row r="67" spans="2:10">
       <c r="B67" s="8">
         <f>COUNTA($D$5:D67)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C67" s="8"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -1953,10 +2333,10 @@
       <c r="I67" s="10"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="2:10" ht="30">
+    <row r="68" spans="2:10" ht="31.5">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="6" t="s">
         <v>56</v>
       </c>
@@ -1969,10 +2349,10 @@
     <row r="69" spans="2:10">
       <c r="B69" s="8">
         <f>COUNTA($D$5:D69)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C69" s="8"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="5"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -1980,10 +2360,10 @@
       <c r="I69" s="10"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="2:10" ht="30">
+    <row r="70" spans="2:10" ht="31.5">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2229,12 +2609,20 @@
     <mergeCell ref="H59:H60"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="B5:C70">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B5:C34 B51:C70">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$H5&lt;&gt;"完了"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$H5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C50">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H35&lt;&gt;"完了"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$H5="完了"</formula>
+      <formula>$H35="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2270,7 +2658,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
